--- a/data/trans_dic/P5_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de balcón en su vivienda</t>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>42,47%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,57; 53,12</t>
+          <t>31,81; 53,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,05; 55,1</t>
+          <t>37,91; 59,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,41; 44,3</t>
+          <t>29,78; 48,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,28; 47,57</t>
+          <t>30,41; 46,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,34; 46,71</t>
+          <t>33,21; 47,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 49,48</t>
+          <t>36,32; 50,26</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>47,6%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,79; 55,38</t>
+          <t>44,04; 58,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,87; 55,73</t>
+          <t>43,94; 56,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 47,48</t>
+          <t>40,56; 52,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,33; 46,65</t>
+          <t>39,72; 50,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,86; 50,48</t>
+          <t>44,51; 53,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,14; 49,68</t>
+          <t>43,87; 52,04</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>39,38%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>40,99%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>45,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>42,71%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,64; 53,86</t>
+          <t>37,73; 52,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,86; 50,83</t>
+          <t>36,02; 49,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,32; 46,77</t>
+          <t>35,13; 47,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,04; 46,04</t>
+          <t>34,07; 45,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,71; 48,98</t>
+          <t>37,73; 47,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,99; 46,42</t>
+          <t>36,71; 45,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>44,84%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,59; 52,45</t>
+          <t>46,89; 54,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,41; 51,32</t>
+          <t>43,44; 53,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,17; 44,95</t>
+          <t>38,57; 45,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,67; 44,62</t>
+          <t>37,02; 45,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,93; 47,9</t>
+          <t>43,71; 48,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,48; 47,35</t>
+          <t>41,41; 48,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46,73; 52,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44,35; 51,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40,09; 45,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38,86; 44,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43,84; 47,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 46,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de balcón en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96911</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>162807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>103379</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>160357</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>200289</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>323164</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72042; 121958</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>128586; 203381</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77919; 125929</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>128222; 196222</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>162115; 233423</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>276360; 382467</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>328986</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>471053</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>331424</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>448894</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>660410</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>919947</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>286667; 378256</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>409748; 528030</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>290055; 373679</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>397204; 501948</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>607948; 724467</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>847797; 1005655</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>204707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>305773</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>217969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>302898</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>422676</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>608671</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>171930; 238744</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>257724; 352817</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>186787; 252257</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>262076; 348430</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>372493; 468901</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>545084; 672348</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1074673</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>704252</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>875203</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>578419</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1949876</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1282671</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>991407; 1156258</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>633100; 783967</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>805946; 940764</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>519544; 639094</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1837557; 2056076</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1184533; 1384340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1328.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1081.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1705277</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1643885</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1527975</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1490567</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3233252</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3134452</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1611001; 1815932</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1527684; 1759251</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1442607; 1623438</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1396597; 1587139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3089118; 3375957</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2976300; 3287818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>